--- a/Trunk/BugReport.xlsx
+++ b/Trunk/BugReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -1307,6 +1307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1345,9 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2105,8 +2105,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BU12" sqref="BU12:BX12"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BU26" sqref="BU26:BX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2120,11 +2120,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="15.75" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -2981,788 +2981,788 @@
       <c r="BX6" s="38"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="I7" s="47" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="I7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="Q7" s="47" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="Q7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="Y7" s="47" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="Y7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="47" t="s">
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="47" t="s">
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="47" t="s">
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="47" t="s">
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="47" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="47" t="s">
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="47" t="s">
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="47" t="s">
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="47" t="s">
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BJ7" s="48"/>
-      <c r="BK7" s="48"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="39" t="s">
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="50"/>
+      <c r="BM7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BN7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39" t="s">
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="39" t="s">
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="BV7" s="39"/>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
     </row>
     <row r="8" spans="1:84">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="I8" s="44" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="I8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="Q8" s="44" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+      <c r="Q8" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="Y8" s="44" t="s">
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+      <c r="Y8" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="44" t="s">
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="44" t="s">
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="44" t="s">
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="46"/>
-      <c r="AO8" s="44" t="s">
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="44" t="s">
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="44" t="s">
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="44" t="s">
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="44" t="s">
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="46"/>
-      <c r="BI8" s="44" t="s">
+      <c r="BF8" s="46"/>
+      <c r="BG8" s="46"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="BJ8" s="45"/>
-      <c r="BK8" s="45"/>
-      <c r="BL8" s="46"/>
-      <c r="BM8" s="40" t="s">
+      <c r="BJ8" s="46"/>
+      <c r="BK8" s="46"/>
+      <c r="BL8" s="47"/>
+      <c r="BM8" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="BN8" s="40"/>
-      <c r="BO8" s="40"/>
-      <c r="BP8" s="40"/>
-      <c r="BQ8" s="40" t="s">
+      <c r="BN8" s="41"/>
+      <c r="BO8" s="41"/>
+      <c r="BP8" s="41"/>
+      <c r="BQ8" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="BR8" s="40"/>
-      <c r="BS8" s="40"/>
-      <c r="BT8" s="40"/>
-      <c r="BU8" s="40" t="s">
+      <c r="BR8" s="41"/>
+      <c r="BS8" s="41"/>
+      <c r="BT8" s="41"/>
+      <c r="BU8" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="BV8" s="40"/>
-      <c r="BW8" s="40"/>
-      <c r="BX8" s="40"/>
+      <c r="BV8" s="41"/>
+      <c r="BW8" s="41"/>
+      <c r="BX8" s="41"/>
     </row>
     <row r="9" spans="1:84" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="I9" s="41" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="I9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
-      <c r="Q9" s="41" t="s">
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="Q9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
-      <c r="Y9" s="41" t="s">
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="Y9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="41" t="s">
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="41" t="s">
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="41" t="s">
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="41" t="s">
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="41" t="s">
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="44"/>
+      <c r="BA9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="41" t="s">
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="41" t="s">
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="41" t="s">
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="44"/>
+      <c r="BM9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="41" t="s">
+      <c r="BN9" s="43"/>
+      <c r="BO9" s="43"/>
+      <c r="BP9" s="44"/>
+      <c r="BQ9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BR9" s="42"/>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="43"/>
-      <c r="BU9" s="41" t="s">
+      <c r="BR9" s="43"/>
+      <c r="BS9" s="43"/>
+      <c r="BT9" s="44"/>
+      <c r="BU9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BV9" s="42"/>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="43"/>
+      <c r="BV9" s="43"/>
+      <c r="BW9" s="43"/>
+      <c r="BX9" s="44"/>
     </row>
     <row r="10" spans="1:84" ht="50.1" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="I10" s="44" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="I10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="Q10" s="44" t="s">
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="Q10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="Y10" s="44" t="s">
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+      <c r="Y10" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="44" t="s">
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="46"/>
-      <c r="AG10" s="44" t="s">
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="46"/>
-      <c r="AK10" s="44" t="s">
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="46"/>
-      <c r="AO10" s="44" t="s">
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="46"/>
-      <c r="AS10" s="44" t="s">
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="46"/>
-      <c r="AW10" s="44" t="s">
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="44" t="s">
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="BB10" s="45"/>
-      <c r="BC10" s="45"/>
-      <c r="BD10" s="46"/>
-      <c r="BE10" s="44" t="s">
+      <c r="BB10" s="46"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="BF10" s="45"/>
-      <c r="BG10" s="45"/>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="44" t="s">
+      <c r="BF10" s="46"/>
+      <c r="BG10" s="46"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="BJ10" s="45"/>
-      <c r="BK10" s="45"/>
-      <c r="BL10" s="46"/>
-      <c r="BM10" s="44" t="s">
+      <c r="BJ10" s="46"/>
+      <c r="BK10" s="46"/>
+      <c r="BL10" s="47"/>
+      <c r="BM10" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="46"/>
-      <c r="BQ10" s="44" t="s">
+      <c r="BN10" s="46"/>
+      <c r="BO10" s="46"/>
+      <c r="BP10" s="47"/>
+      <c r="BQ10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="BR10" s="45"/>
-      <c r="BS10" s="45"/>
-      <c r="BT10" s="46"/>
-      <c r="BU10" s="44" t="s">
+      <c r="BR10" s="46"/>
+      <c r="BS10" s="46"/>
+      <c r="BT10" s="47"/>
+      <c r="BU10" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="BV10" s="45"/>
-      <c r="BW10" s="45"/>
-      <c r="BX10" s="46"/>
+      <c r="BV10" s="46"/>
+      <c r="BW10" s="46"/>
+      <c r="BX10" s="47"/>
     </row>
     <row r="11" spans="1:84">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="I11" s="47" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="I11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="Q11" s="47" t="s">
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="Q11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="Y11" s="47" t="s">
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="Y11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="47" t="s">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="47" t="s">
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="47" t="s">
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="47" t="s">
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="49"/>
-      <c r="AS11" s="47" t="s">
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="50"/>
+      <c r="AS11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="49"/>
-      <c r="AW11" s="47" t="s">
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="47" t="s">
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="49"/>
-      <c r="BE11" s="47" t="s">
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="50"/>
+      <c r="BE11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="49"/>
-      <c r="BI11" s="47" t="s">
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="50"/>
+      <c r="BI11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="49"/>
-      <c r="BM11" s="47" t="s">
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="50"/>
+      <c r="BM11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BN11" s="48"/>
-      <c r="BO11" s="48"/>
-      <c r="BP11" s="49"/>
-      <c r="BQ11" s="47" t="s">
+      <c r="BN11" s="49"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="50"/>
+      <c r="BQ11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BR11" s="48"/>
-      <c r="BS11" s="48"/>
-      <c r="BT11" s="49"/>
-      <c r="BU11" s="47" t="s">
+      <c r="BR11" s="49"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="50"/>
+      <c r="BU11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BV11" s="48"/>
-      <c r="BW11" s="48"/>
-      <c r="BX11" s="49"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="50"/>
     </row>
     <row r="12" spans="1:84" ht="50.1" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="I12" s="44" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="I12" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="Q12" s="44" t="s">
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="Q12" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
-      <c r="Y12" s="44" t="s">
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
+      <c r="Y12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="44" t="s">
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="44" t="s">
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="44" t="s">
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="44" t="s">
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="47"/>
+      <c r="AO12" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="44" t="s">
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="47"/>
+      <c r="AS12" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="44" t="s">
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="44" t="s">
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="BB12" s="45"/>
-      <c r="BC12" s="45"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="44" t="s">
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="BF12" s="45"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="46"/>
-      <c r="BI12" s="44" t="s">
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="BJ12" s="45"/>
-      <c r="BK12" s="45"/>
-      <c r="BL12" s="46"/>
-      <c r="BM12" s="44" t="s">
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="47"/>
+      <c r="BM12" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="BN12" s="45"/>
-      <c r="BO12" s="45"/>
-      <c r="BP12" s="46"/>
-      <c r="BQ12" s="44" t="s">
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
+      <c r="BP12" s="47"/>
+      <c r="BQ12" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="BR12" s="45"/>
-      <c r="BS12" s="45"/>
-      <c r="BT12" s="46"/>
-      <c r="BU12" s="44" t="s">
+      <c r="BR12" s="46"/>
+      <c r="BS12" s="46"/>
+      <c r="BT12" s="47"/>
+      <c r="BU12" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="BV12" s="45"/>
-      <c r="BW12" s="45"/>
-      <c r="BX12" s="46"/>
+      <c r="BV12" s="46"/>
+      <c r="BW12" s="46"/>
+      <c r="BX12" s="47"/>
     </row>
     <row r="13" spans="1:84">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="I13" s="47" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="I13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49"/>
-      <c r="Q13" s="47" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="Q13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="49"/>
-      <c r="Y13" s="47" t="s">
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="Y13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="47" t="s">
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="47" t="s">
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="47" t="s">
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="47" t="s">
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="47" t="s">
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="47" t="s">
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="47" t="s">
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="47" t="s">
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="47" t="s">
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="47" t="s">
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="50"/>
+      <c r="BM13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="48"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="47" t="s">
+      <c r="BN13" s="49"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="50"/>
+      <c r="BQ13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BR13" s="48"/>
-      <c r="BS13" s="48"/>
-      <c r="BT13" s="49"/>
-      <c r="BU13" s="47" t="s">
+      <c r="BR13" s="49"/>
+      <c r="BS13" s="49"/>
+      <c r="BT13" s="50"/>
+      <c r="BU13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="BV13" s="48"/>
-      <c r="BW13" s="48"/>
-      <c r="BX13" s="49"/>
+      <c r="BV13" s="49"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="50"/>
     </row>
     <row r="14" spans="1:84" ht="50.1" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="I14" s="44" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="I14" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="Q14" s="44" t="s">
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="Q14" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46"/>
-      <c r="Y14" s="44" t="s">
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="Y14" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="44" t="s">
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="44" t="s">
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="44" t="s">
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="44" t="s">
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="44" t="s">
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="44" t="s">
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="44" t="s">
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="BB14" s="45"/>
-      <c r="BC14" s="45"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="44" t="s">
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="BF14" s="45"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="44" t="s">
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="BJ14" s="45"/>
-      <c r="BK14" s="45"/>
-      <c r="BL14" s="46"/>
-      <c r="BM14" s="44" t="s">
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="46"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="BN14" s="45"/>
-      <c r="BO14" s="45"/>
-      <c r="BP14" s="46"/>
-      <c r="BQ14" s="44" t="s">
+      <c r="BN14" s="46"/>
+      <c r="BO14" s="46"/>
+      <c r="BP14" s="47"/>
+      <c r="BQ14" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="BR14" s="45"/>
-      <c r="BS14" s="45"/>
-      <c r="BT14" s="46"/>
-      <c r="BU14" s="44" t="s">
+      <c r="BR14" s="46"/>
+      <c r="BS14" s="46"/>
+      <c r="BT14" s="47"/>
+      <c r="BU14" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="BV14" s="45"/>
-      <c r="BW14" s="45"/>
-      <c r="BX14" s="46"/>
+      <c r="BV14" s="46"/>
+      <c r="BW14" s="46"/>
+      <c r="BX14" s="47"/>
     </row>
     <row r="15" spans="1:84" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
@@ -4724,884 +4724,884 @@
       <c r="CF20" s="38"/>
     </row>
     <row r="21" spans="1:84">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="I21" s="47" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="I21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="Q21" s="47" t="s">
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="Q21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
-      <c r="Y21" s="47" t="s">
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="Y21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="47" t="s">
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="47" t="s">
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="47" t="s">
+      <c r="AH21" s="49"/>
+      <c r="AI21" s="49"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="47" t="s">
+      <c r="AL21" s="49"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="50"/>
+      <c r="AO21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="47" t="s">
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="47" t="s">
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="49"/>
-      <c r="BA21" s="47" t="s">
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
-      <c r="BD21" s="49"/>
-      <c r="BE21" s="47" t="s">
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="49"/>
+      <c r="BD21" s="50"/>
+      <c r="BE21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="47" t="s">
+      <c r="BF21" s="49"/>
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="50"/>
+      <c r="BI21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BJ21" s="48"/>
-      <c r="BK21" s="48"/>
-      <c r="BL21" s="49"/>
-      <c r="BM21" s="47" t="s">
+      <c r="BJ21" s="49"/>
+      <c r="BK21" s="49"/>
+      <c r="BL21" s="50"/>
+      <c r="BM21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BN21" s="48"/>
-      <c r="BO21" s="48"/>
-      <c r="BP21" s="49"/>
-      <c r="BQ21" s="47" t="s">
+      <c r="BN21" s="49"/>
+      <c r="BO21" s="49"/>
+      <c r="BP21" s="50"/>
+      <c r="BQ21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BR21" s="48"/>
-      <c r="BS21" s="48"/>
-      <c r="BT21" s="49"/>
-      <c r="BU21" s="47" t="s">
+      <c r="BR21" s="49"/>
+      <c r="BS21" s="49"/>
+      <c r="BT21" s="50"/>
+      <c r="BU21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BV21" s="48"/>
-      <c r="BW21" s="48"/>
-      <c r="BX21" s="49"/>
-      <c r="BY21" s="47" t="s">
+      <c r="BV21" s="49"/>
+      <c r="BW21" s="49"/>
+      <c r="BX21" s="50"/>
+      <c r="BY21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="48"/>
-      <c r="CB21" s="49"/>
-      <c r="CC21" s="47" t="s">
+      <c r="BZ21" s="49"/>
+      <c r="CA21" s="49"/>
+      <c r="CB21" s="50"/>
+      <c r="CC21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="CD21" s="48"/>
-      <c r="CE21" s="48"/>
-      <c r="CF21" s="49"/>
+      <c r="CD21" s="49"/>
+      <c r="CE21" s="49"/>
+      <c r="CF21" s="50"/>
     </row>
     <row r="22" spans="1:84">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="I22" s="44" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="I22" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="Q22" s="44" t="s">
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
+      <c r="Q22" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
-      <c r="Y22" s="44" t="s">
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="Y22" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="44" t="s">
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="44" t="s">
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="44" t="s">
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="46"/>
-      <c r="AO22" s="44" t="s">
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="44" t="s">
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="46"/>
-      <c r="AW22" s="44" t="s">
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="46"/>
-      <c r="BA22" s="44" t="s">
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="47"/>
+      <c r="BA22" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="BB22" s="45"/>
-      <c r="BC22" s="45"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="44" t="s">
+      <c r="BB22" s="46"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="47"/>
+      <c r="BE22" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="BF22" s="45"/>
-      <c r="BG22" s="45"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="44" t="s">
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="47"/>
+      <c r="BI22" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="BJ22" s="45"/>
-      <c r="BK22" s="45"/>
-      <c r="BL22" s="46"/>
-      <c r="BM22" s="44" t="s">
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BL22" s="47"/>
+      <c r="BM22" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="BN22" s="45"/>
-      <c r="BO22" s="45"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="44" t="s">
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="47"/>
+      <c r="BQ22" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="BR22" s="45"/>
-      <c r="BS22" s="45"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="44" t="s">
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="47"/>
+      <c r="BU22" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="BV22" s="45"/>
-      <c r="BW22" s="45"/>
-      <c r="BX22" s="46"/>
-      <c r="BY22" s="44" t="s">
+      <c r="BV22" s="46"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="47"/>
+      <c r="BY22" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="BZ22" s="45"/>
-      <c r="CA22" s="45"/>
-      <c r="CB22" s="46"/>
-      <c r="CC22" s="44" t="s">
+      <c r="BZ22" s="46"/>
+      <c r="CA22" s="46"/>
+      <c r="CB22" s="47"/>
+      <c r="CC22" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="CD22" s="45"/>
-      <c r="CE22" s="45"/>
-      <c r="CF22" s="46"/>
+      <c r="CD22" s="46"/>
+      <c r="CE22" s="46"/>
+      <c r="CF22" s="47"/>
     </row>
     <row r="23" spans="1:84" ht="15" customHeight="1">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="I23" s="41" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="I23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="Q23" s="41" t="s">
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
+      <c r="Q23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="43"/>
-      <c r="Y23" s="41" t="s">
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="Y23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="41" t="s">
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="41" t="s">
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="41" t="s">
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="41" t="s">
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="41" t="s">
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="41" t="s">
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="41" t="s">
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="41" t="s">
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="41" t="s">
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="44"/>
+      <c r="BI23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="41" t="s">
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="44"/>
+      <c r="BM23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="42"/>
-      <c r="BP23" s="43"/>
-      <c r="BQ23" s="41" t="s">
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="44"/>
+      <c r="BQ23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="43"/>
-      <c r="BU23" s="41" t="s">
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="44"/>
+      <c r="BU23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BV23" s="42"/>
-      <c r="BW23" s="42"/>
-      <c r="BX23" s="43"/>
-      <c r="BY23" s="41" t="s">
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="44"/>
+      <c r="BY23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
-      <c r="CB23" s="43"/>
-      <c r="CC23" s="41" t="s">
+      <c r="BZ23" s="43"/>
+      <c r="CA23" s="43"/>
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="42"/>
-      <c r="CF23" s="43"/>
+      <c r="CD23" s="43"/>
+      <c r="CE23" s="43"/>
+      <c r="CF23" s="44"/>
     </row>
     <row r="24" spans="1:84" ht="49.5" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="I24" s="44" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="I24" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="Q24" s="44" t="s">
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="47"/>
+      <c r="Q24" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
-      <c r="Y24" s="44" t="s">
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
+      <c r="Y24" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="44" t="s">
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="44" t="s">
+      <c r="AD24" s="46"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="44" t="s">
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="44" t="s">
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="44" t="s">
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="44" t="s">
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="AX24" s="45"/>
-      <c r="AY24" s="45"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="44" t="s">
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="44" t="s">
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="47"/>
+      <c r="BE24" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="BF24" s="45"/>
-      <c r="BG24" s="45"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="44" t="s">
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="47"/>
+      <c r="BI24" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="BJ24" s="45"/>
-      <c r="BK24" s="45"/>
-      <c r="BL24" s="46"/>
-      <c r="BM24" s="44" t="s">
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="47"/>
+      <c r="BM24" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="BN24" s="45"/>
-      <c r="BO24" s="45"/>
-      <c r="BP24" s="46"/>
-      <c r="BQ24" s="44" t="s">
+      <c r="BN24" s="46"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="47"/>
+      <c r="BQ24" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="BR24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BT24" s="46"/>
-      <c r="BU24" s="44" t="s">
+      <c r="BR24" s="46"/>
+      <c r="BS24" s="46"/>
+      <c r="BT24" s="47"/>
+      <c r="BU24" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="46"/>
-      <c r="BY24" s="44" t="s">
+      <c r="BV24" s="46"/>
+      <c r="BW24" s="46"/>
+      <c r="BX24" s="47"/>
+      <c r="BY24" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CB24" s="46"/>
-      <c r="CC24" s="44" t="s">
+      <c r="BZ24" s="46"/>
+      <c r="CA24" s="46"/>
+      <c r="CB24" s="47"/>
+      <c r="CC24" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CF24" s="46"/>
+      <c r="CD24" s="46"/>
+      <c r="CE24" s="46"/>
+      <c r="CF24" s="47"/>
     </row>
     <row r="25" spans="1:84">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="I25" s="39" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="I25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="Q25" s="39" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="Q25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="Y25" s="39" t="s">
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="Y25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39" t="s">
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39" t="s">
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="39"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39" t="s">
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AL25" s="39"/>
-      <c r="AM25" s="39"/>
-      <c r="AN25" s="39"/>
-      <c r="AO25" s="39" t="s">
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="39" t="s">
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AT25" s="39"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="39"/>
-      <c r="AW25" s="39" t="s">
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="39" t="s">
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BB25" s="39"/>
-      <c r="BC25" s="39"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="39" t="s">
+      <c r="BB25" s="40"/>
+      <c r="BC25" s="40"/>
+      <c r="BD25" s="40"/>
+      <c r="BE25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BF25" s="39"/>
-      <c r="BG25" s="39"/>
-      <c r="BH25" s="39"/>
-      <c r="BI25" s="39" t="s">
+      <c r="BF25" s="40"/>
+      <c r="BG25" s="40"/>
+      <c r="BH25" s="40"/>
+      <c r="BI25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BJ25" s="39"/>
-      <c r="BK25" s="39"/>
-      <c r="BL25" s="39"/>
-      <c r="BM25" s="39" t="s">
+      <c r="BJ25" s="40"/>
+      <c r="BK25" s="40"/>
+      <c r="BL25" s="40"/>
+      <c r="BM25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BN25" s="39"/>
-      <c r="BO25" s="39"/>
-      <c r="BP25" s="39"/>
-      <c r="BQ25" s="39" t="s">
+      <c r="BN25" s="40"/>
+      <c r="BO25" s="40"/>
+      <c r="BP25" s="40"/>
+      <c r="BQ25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BR25" s="39"/>
-      <c r="BS25" s="39"/>
-      <c r="BT25" s="39"/>
-      <c r="BU25" s="39" t="s">
+      <c r="BR25" s="40"/>
+      <c r="BS25" s="40"/>
+      <c r="BT25" s="40"/>
+      <c r="BU25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BV25" s="39"/>
-      <c r="BW25" s="39"/>
-      <c r="BX25" s="39"/>
-      <c r="BY25" s="39" t="s">
+      <c r="BV25" s="40"/>
+      <c r="BW25" s="40"/>
+      <c r="BX25" s="40"/>
+      <c r="BY25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BZ25" s="39"/>
-      <c r="CA25" s="39"/>
-      <c r="CB25" s="39"/>
-      <c r="CC25" s="39" t="s">
+      <c r="BZ25" s="40"/>
+      <c r="CA25" s="40"/>
+      <c r="CB25" s="40"/>
+      <c r="CC25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="CD25" s="39"/>
-      <c r="CE25" s="39"/>
-      <c r="CF25" s="39"/>
+      <c r="CD25" s="40"/>
+      <c r="CE25" s="40"/>
+      <c r="CF25" s="40"/>
     </row>
     <row r="26" spans="1:84" ht="49.5" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="I26" s="40" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="I26" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="Q26" s="40" t="s">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="Q26" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="Y26" s="40" t="s">
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="Y26" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40" t="s">
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40" t="s">
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40" t="s">
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40" t="s">
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40" t="s">
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="40"/>
-      <c r="AV26" s="40"/>
-      <c r="AW26" s="40" t="s">
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40" t="s">
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="41"/>
+      <c r="BA26" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="40"/>
-      <c r="BD26" s="40"/>
-      <c r="BE26" s="40" t="s">
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="41"/>
+      <c r="BE26" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="BF26" s="40"/>
-      <c r="BG26" s="40"/>
-      <c r="BH26" s="40"/>
-      <c r="BI26" s="44" t="s">
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="41"/>
+      <c r="BI26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="44" t="s">
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="47"/>
+      <c r="BM26" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="BN26" s="45"/>
-      <c r="BO26" s="45"/>
-      <c r="BP26" s="46"/>
-      <c r="BQ26" s="44" t="s">
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="46"/>
+      <c r="BP26" s="47"/>
+      <c r="BQ26" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="BR26" s="45"/>
-      <c r="BS26" s="45"/>
-      <c r="BT26" s="46"/>
-      <c r="BU26" s="44" t="s">
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="BV26" s="45"/>
-      <c r="BW26" s="45"/>
-      <c r="BX26" s="46"/>
-      <c r="BY26" s="44" t="s">
+      <c r="BV26" s="46"/>
+      <c r="BW26" s="46"/>
+      <c r="BX26" s="47"/>
+      <c r="BY26" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="BZ26" s="45"/>
-      <c r="CA26" s="45"/>
-      <c r="CB26" s="46"/>
-      <c r="CC26" s="44" t="s">
+      <c r="BZ26" s="46"/>
+      <c r="CA26" s="46"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="CD26" s="45"/>
-      <c r="CE26" s="45"/>
-      <c r="CF26" s="46"/>
+      <c r="CD26" s="46"/>
+      <c r="CE26" s="46"/>
+      <c r="CF26" s="47"/>
     </row>
     <row r="27" spans="1:84">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="I27" s="39" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="I27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="Q27" s="39" t="s">
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="Q27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="Y27" s="39" t="s">
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="Y27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39" t="s">
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39" t="s">
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39" t="s">
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39" t="s">
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39" t="s">
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39" t="s">
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39" t="s">
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39" t="s">
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="40"/>
+      <c r="BE27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BF27" s="39"/>
-      <c r="BG27" s="39"/>
-      <c r="BH27" s="39"/>
-      <c r="BI27" s="39" t="s">
+      <c r="BF27" s="40"/>
+      <c r="BG27" s="40"/>
+      <c r="BH27" s="40"/>
+      <c r="BI27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BJ27" s="39"/>
-      <c r="BK27" s="39"/>
-      <c r="BL27" s="39"/>
-      <c r="BM27" s="39" t="s">
+      <c r="BJ27" s="40"/>
+      <c r="BK27" s="40"/>
+      <c r="BL27" s="40"/>
+      <c r="BM27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BN27" s="39"/>
-      <c r="BO27" s="39"/>
-      <c r="BP27" s="39"/>
-      <c r="BQ27" s="39" t="s">
+      <c r="BN27" s="40"/>
+      <c r="BO27" s="40"/>
+      <c r="BP27" s="40"/>
+      <c r="BQ27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BR27" s="39"/>
-      <c r="BS27" s="39"/>
-      <c r="BT27" s="39"/>
-      <c r="BU27" s="39" t="s">
+      <c r="BR27" s="40"/>
+      <c r="BS27" s="40"/>
+      <c r="BT27" s="40"/>
+      <c r="BU27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BV27" s="39"/>
-      <c r="BW27" s="39"/>
-      <c r="BX27" s="39"/>
-      <c r="BY27" s="39" t="s">
+      <c r="BV27" s="40"/>
+      <c r="BW27" s="40"/>
+      <c r="BX27" s="40"/>
+      <c r="BY27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BZ27" s="39"/>
-      <c r="CA27" s="39"/>
-      <c r="CB27" s="39"/>
-      <c r="CC27" s="39" t="s">
+      <c r="BZ27" s="40"/>
+      <c r="CA27" s="40"/>
+      <c r="CB27" s="40"/>
+      <c r="CC27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="CD27" s="39"/>
-      <c r="CE27" s="39"/>
-      <c r="CF27" s="39"/>
+      <c r="CD27" s="40"/>
+      <c r="CE27" s="40"/>
+      <c r="CF27" s="40"/>
     </row>
     <row r="28" spans="1:84" ht="49.5" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="I28" s="40" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="I28" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="Q28" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="Y28" s="40" t="s">
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="Y28" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40" t="s">
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40" t="s">
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="AH28" s="40"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40" t="s">
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="40"/>
-      <c r="AO28" s="40" t="s">
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40" t="s">
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="40"/>
-      <c r="AV28" s="40"/>
-      <c r="AW28" s="40" t="s">
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="AX28" s="40"/>
-      <c r="AY28" s="40"/>
-      <c r="AZ28" s="40"/>
-      <c r="BA28" s="40" t="s">
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="BB28" s="40"/>
-      <c r="BC28" s="40"/>
-      <c r="BD28" s="40"/>
-      <c r="BE28" s="40" t="s">
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="BF28" s="40"/>
-      <c r="BG28" s="40"/>
-      <c r="BH28" s="40"/>
-      <c r="BI28" s="40" t="s">
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="BJ28" s="40"/>
-      <c r="BK28" s="40"/>
-      <c r="BL28" s="40"/>
-      <c r="BM28" s="40" t="s">
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="BN28" s="40"/>
-      <c r="BO28" s="40"/>
-      <c r="BP28" s="40"/>
-      <c r="BQ28" s="40" t="s">
+      <c r="BN28" s="41"/>
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="BR28" s="40"/>
-      <c r="BS28" s="40"/>
-      <c r="BT28" s="40"/>
-      <c r="BU28" s="40" t="s">
+      <c r="BR28" s="41"/>
+      <c r="BS28" s="41"/>
+      <c r="BT28" s="41"/>
+      <c r="BU28" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="BV28" s="40"/>
-      <c r="BW28" s="40"/>
-      <c r="BX28" s="40"/>
-      <c r="BY28" s="40" t="s">
+      <c r="BV28" s="41"/>
+      <c r="BW28" s="41"/>
+      <c r="BX28" s="41"/>
+      <c r="BY28" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="BZ28" s="40"/>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40" t="s">
+      <c r="BZ28" s="41"/>
+      <c r="CA28" s="41"/>
+      <c r="CB28" s="41"/>
+      <c r="CC28" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="CD28" s="40"/>
-      <c r="CE28" s="40"/>
-      <c r="CF28" s="40"/>
+      <c r="CD28" s="41"/>
+      <c r="CE28" s="41"/>
+      <c r="CF28" s="41"/>
     </row>
     <row r="29" spans="1:84" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:84" ht="16.5" thickTop="1" thickBot="1">
@@ -6006,7 +6006,7 @@
       <c r="A34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="39">
         <v>40747</v>
       </c>
       <c r="C34" s="38" t="s">
@@ -6016,7 +6016,7 @@
       <c r="I34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="39">
         <v>40747</v>
       </c>
       <c r="K34" s="38" t="s">
@@ -6026,7 +6026,7 @@
       <c r="Q34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="39">
         <v>40747</v>
       </c>
       <c r="S34" s="38" t="s">
@@ -6036,7 +6036,7 @@
       <c r="Y34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Z34" s="52">
+      <c r="Z34" s="39">
         <v>40747</v>
       </c>
       <c r="AA34" s="38" t="s">
@@ -6046,7 +6046,7 @@
       <c r="AC34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AD34" s="52">
+      <c r="AD34" s="39">
         <v>40747</v>
       </c>
       <c r="AE34" s="38" t="s">
@@ -6056,7 +6056,7 @@
       <c r="AG34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AH34" s="52">
+      <c r="AH34" s="39">
         <v>40747</v>
       </c>
       <c r="AI34" s="38" t="s">
@@ -6066,7 +6066,7 @@
       <c r="AK34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AL34" s="52">
+      <c r="AL34" s="39">
         <v>40747</v>
       </c>
       <c r="AM34" s="38" t="s">
@@ -6076,7 +6076,7 @@
       <c r="AO34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AP34" s="52">
+      <c r="AP34" s="39">
         <v>40747</v>
       </c>
       <c r="AQ34" s="38" t="s">
@@ -6086,7 +6086,7 @@
       <c r="AS34" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AT34" s="52">
+      <c r="AT34" s="39">
         <v>40747</v>
       </c>
       <c r="AU34" s="38" t="s">
@@ -6095,452 +6095,452 @@
       <c r="AV34" s="38"/>
     </row>
     <row r="35" spans="1:48">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="I35" s="39" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="I35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="Q35" s="39" t="s">
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="Q35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="Y35" s="39" t="s">
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="Y35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39" t="s">
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39" t="s">
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39" t="s">
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39" t="s">
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
     </row>
     <row r="36" spans="1:48">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="I36" s="40" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="I36" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="Q36" s="40" t="s">
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="Q36" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="Y36" s="40" t="s">
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="Y36" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40" t="s">
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="40"/>
-      <c r="AG36" s="40" t="s">
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="AH36" s="40"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="40" t="s">
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="AL36" s="40"/>
-      <c r="AM36" s="40"/>
-      <c r="AN36" s="40"/>
-      <c r="AO36" s="40" t="s">
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40" t="s">
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="41"/>
+      <c r="AS36" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
     </row>
     <row r="37" spans="1:48">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="I37" s="50" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="I37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="Q37" s="50" t="s">
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="Q37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="Y37" s="50" t="s">
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="Y37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50" t="s">
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50" t="s">
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50" t="s">
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AL37" s="50"/>
-      <c r="AM37" s="50"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50" t="s">
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AP37" s="50"/>
-      <c r="AQ37" s="50"/>
-      <c r="AR37" s="50"/>
-      <c r="AS37" s="50" t="s">
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AT37" s="50"/>
-      <c r="AU37" s="50"/>
-      <c r="AV37" s="50"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
     </row>
     <row r="38" spans="1:48" ht="49.5" customHeight="1">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="I38" s="40" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="I38" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="Q38" s="40" t="s">
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="Q38" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="Y38" s="40" t="s">
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="Y38" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40" t="s">
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40" t="s">
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40" t="s">
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="AL38" s="40"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="40" t="s">
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+      <c r="AN38" s="41"/>
+      <c r="AO38" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40" t="s">
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="41"/>
+      <c r="AR38" s="41"/>
+      <c r="AS38" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="40"/>
+      <c r="AT38" s="41"/>
+      <c r="AU38" s="41"/>
+      <c r="AV38" s="41"/>
     </row>
     <row r="39" spans="1:48">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="I39" s="39" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="I39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="Q39" s="39" t="s">
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="Q39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="Y39" s="39" t="s">
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="Y39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39" t="s">
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AH39" s="39"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
-      <c r="AK39" s="39" t="s">
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="39"/>
-      <c r="AN39" s="39"/>
-      <c r="AO39" s="39" t="s">
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AP39" s="39"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="39"/>
-      <c r="AS39" s="39" t="s">
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
-      <c r="AV39" s="39"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="40"/>
     </row>
     <row r="40" spans="1:48" ht="47.25" customHeight="1">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="I40" s="40" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="I40" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="Q40" s="40" t="s">
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="Q40" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="Y40" s="40" t="s">
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="Y40" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40" t="s">
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40" t="s">
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="40" t="s">
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="40"/>
-      <c r="AN40" s="40"/>
-      <c r="AO40" s="40" t="s">
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40" t="s">
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="40"/>
-      <c r="AV40" s="40"/>
+      <c r="AT40" s="41"/>
+      <c r="AU40" s="41"/>
+      <c r="AV40" s="41"/>
     </row>
     <row r="41" spans="1:48">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="I41" s="39" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="I41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="Q41" s="39" t="s">
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="Q41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="Y41" s="39" t="s">
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="Y41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39" t="s">
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39" t="s">
+      <c r="AH41" s="40"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
+      <c r="AK41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="40"/>
+      <c r="AN41" s="40"/>
+      <c r="AO41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="39" t="s">
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
+      <c r="AR41" s="40"/>
+      <c r="AS41" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AT41" s="39"/>
-      <c r="AU41" s="39"/>
-      <c r="AV41" s="39"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
+      <c r="AV41" s="40"/>
     </row>
     <row r="42" spans="1:48" ht="49.5" customHeight="1">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="I42" s="40" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="I42" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="Q42" s="40" t="s">
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="Q42" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="Y42" s="40" t="s">
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="Y42" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40" t="s">
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40" t="s">
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="40" t="s">
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="40"/>
-      <c r="AN42" s="40"/>
-      <c r="AO42" s="40" t="s">
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="AP42" s="40"/>
-      <c r="AQ42" s="40"/>
-      <c r="AR42" s="40"/>
-      <c r="AS42" s="40" t="s">
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="40"/>
-      <c r="AV42" s="40"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
     </row>
     <row r="43" spans="1:48" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:48" ht="16.5" thickTop="1" thickBot="1">
@@ -6596,131 +6596,309 @@
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="353">
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="BU8:BX8"/>
-    <mergeCell ref="BU9:BX9"/>
-    <mergeCell ref="BU10:BX10"/>
-    <mergeCell ref="BU11:BX11"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="BU13:BX13"/>
-    <mergeCell ref="BU14:BX14"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BQ8:BT8"/>
+    <mergeCell ref="BQ9:BT9"/>
+    <mergeCell ref="BQ10:BT10"/>
+    <mergeCell ref="BQ11:BT11"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BQ13:BT13"/>
+    <mergeCell ref="BQ14:BT14"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="BI28:BL28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="BA21:BD21"/>
+    <mergeCell ref="BA22:BD22"/>
+    <mergeCell ref="BA23:BD23"/>
+    <mergeCell ref="BA24:BD24"/>
+    <mergeCell ref="BA25:BD25"/>
+    <mergeCell ref="BA26:BD26"/>
+    <mergeCell ref="BA27:BD27"/>
+    <mergeCell ref="BA28:BD28"/>
+    <mergeCell ref="BY25:CB25"/>
+    <mergeCell ref="BY26:CB26"/>
+    <mergeCell ref="BY27:CB27"/>
+    <mergeCell ref="BY28:CB28"/>
+    <mergeCell ref="BM21:BP21"/>
+    <mergeCell ref="BM22:BP22"/>
+    <mergeCell ref="BM23:BP23"/>
+    <mergeCell ref="BM24:BP24"/>
+    <mergeCell ref="BM25:BP25"/>
+    <mergeCell ref="BM26:BP26"/>
+    <mergeCell ref="BM27:BP27"/>
+    <mergeCell ref="BM28:BP28"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="BQ23:BT23"/>
+    <mergeCell ref="BQ24:BT24"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="BQ27:BT27"/>
+    <mergeCell ref="BQ28:BT28"/>
     <mergeCell ref="CC21:CF21"/>
     <mergeCell ref="CC22:CF22"/>
     <mergeCell ref="CC23:CF23"/>
@@ -6745,26 +6923,74 @@
     <mergeCell ref="BY22:CB22"/>
     <mergeCell ref="BY23:CB23"/>
     <mergeCell ref="BY24:CB24"/>
-    <mergeCell ref="BY25:CB25"/>
-    <mergeCell ref="BY26:CB26"/>
-    <mergeCell ref="BY27:CB27"/>
-    <mergeCell ref="BY28:CB28"/>
-    <mergeCell ref="BM21:BP21"/>
-    <mergeCell ref="BM22:BP22"/>
-    <mergeCell ref="BM23:BP23"/>
-    <mergeCell ref="BM24:BP24"/>
-    <mergeCell ref="BM25:BP25"/>
-    <mergeCell ref="BM26:BP26"/>
-    <mergeCell ref="BM27:BP27"/>
-    <mergeCell ref="BM28:BP28"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="BQ23:BT23"/>
-    <mergeCell ref="BQ24:BT24"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="BQ27:BT27"/>
-    <mergeCell ref="BQ28:BT28"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="BU8:BX8"/>
+    <mergeCell ref="BU9:BX9"/>
+    <mergeCell ref="BU10:BX10"/>
+    <mergeCell ref="BU11:BX11"/>
+    <mergeCell ref="BU12:BX12"/>
+    <mergeCell ref="BU13:BX13"/>
+    <mergeCell ref="BU14:BX14"/>
+    <mergeCell ref="AO36:AR36"/>
     <mergeCell ref="BE21:BH21"/>
     <mergeCell ref="BE22:BH22"/>
     <mergeCell ref="BE23:BH23"/>
@@ -6780,232 +7006,6 @@
     <mergeCell ref="BI25:BL25"/>
     <mergeCell ref="BI26:BL26"/>
     <mergeCell ref="BI27:BL27"/>
-    <mergeCell ref="BI28:BL28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="BA21:BD21"/>
-    <mergeCell ref="BA22:BD22"/>
-    <mergeCell ref="BA23:BD23"/>
-    <mergeCell ref="BA24:BD24"/>
-    <mergeCell ref="BA25:BD25"/>
-    <mergeCell ref="BA26:BD26"/>
-    <mergeCell ref="BA27:BD27"/>
-    <mergeCell ref="BA28:BD28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="BQ8:BT8"/>
-    <mergeCell ref="BQ9:BT9"/>
-    <mergeCell ref="BQ10:BT10"/>
-    <mergeCell ref="BQ11:BT11"/>
-    <mergeCell ref="BQ12:BT12"/>
-    <mergeCell ref="BQ13:BT13"/>
-    <mergeCell ref="BQ14:BT14"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 BN4 BJ4 BF4 BB4 AX4 AT4 AP4 AL4 AH4 AD4 Z4 R4 J4 CD18 BR4 B4 B18 J18 R18 Z18 AD18 AH18 AL18 AP18 AT18 AX18 BB18 BF18 BJ18 BN18 BR18 BV18 BZ18 B32 J32 R32 Z32 AD32 AH32 AL32 AP32 AT32 BV4">

--- a/Trunk/BugReport.xlsx
+++ b/Trunk/BugReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="21150" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -2105,8 +2105,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BU26" sqref="BU26:BX26"/>
+    <sheetView tabSelected="1" topLeftCell="AI17" workbookViewId="0">
+      <selection activeCell="AQ31" sqref="AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="6" spans="1:84">
       <c r="A6" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="36">
         <v>40747</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="I6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="36">
         <v>40747</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="L6" s="32"/>
       <c r="Q6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R6" s="36">
         <v>40747</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="T6" s="32"/>
       <c r="Y6" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="36">
         <v>40747</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="AB6" s="32"/>
       <c r="AC6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="36">
         <v>40747</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="AV20" s="38"/>
       <c r="AW20" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX20" s="38" t="s">
         <v>126</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="BH20" s="38"/>
       <c r="BI20" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BJ20" s="38" t="s">
         <v>126</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="BP20" s="38"/>
       <c r="BQ20" s="38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BR20" s="38" t="s">
         <v>126</v>
@@ -6653,6 +6653,335 @@
     </row>
   </sheetData>
   <mergeCells count="353">
+    <mergeCell ref="BU7:BX7"/>
+    <mergeCell ref="BU8:BX8"/>
+    <mergeCell ref="BU9:BX9"/>
+    <mergeCell ref="BU10:BX10"/>
+    <mergeCell ref="BU11:BX11"/>
+    <mergeCell ref="BU12:BX12"/>
+    <mergeCell ref="BU13:BX13"/>
+    <mergeCell ref="BU14:BX14"/>
+    <mergeCell ref="AO36:AR36"/>
+    <mergeCell ref="BE21:BH21"/>
+    <mergeCell ref="BE22:BH22"/>
+    <mergeCell ref="BE23:BH23"/>
+    <mergeCell ref="BE24:BH24"/>
+    <mergeCell ref="BE25:BH25"/>
+    <mergeCell ref="BE26:BH26"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="BE28:BH28"/>
+    <mergeCell ref="BI21:BL21"/>
+    <mergeCell ref="BI22:BL22"/>
+    <mergeCell ref="BI23:BL23"/>
+    <mergeCell ref="BI24:BL24"/>
+    <mergeCell ref="BI25:BL25"/>
+    <mergeCell ref="BI26:BL26"/>
+    <mergeCell ref="BI27:BL27"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AO39:AR39"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AS35:AV35"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="AS37:AV37"/>
+    <mergeCell ref="AS38:AV38"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="AG36:AJ36"/>
+    <mergeCell ref="AG37:AJ37"/>
+    <mergeCell ref="AG38:AJ38"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AK35:AN35"/>
+    <mergeCell ref="AK36:AN36"/>
+    <mergeCell ref="AK37:AN37"/>
+    <mergeCell ref="AK38:AN38"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AK40:AN40"/>
+    <mergeCell ref="AK41:AN41"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="CC21:CF21"/>
+    <mergeCell ref="CC22:CF22"/>
+    <mergeCell ref="CC23:CF23"/>
+    <mergeCell ref="CC24:CF24"/>
+    <mergeCell ref="CC25:CF25"/>
+    <mergeCell ref="CC26:CF26"/>
+    <mergeCell ref="CC27:CF27"/>
+    <mergeCell ref="CC28:CF28"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AG35:AJ35"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="BU21:BX21"/>
+    <mergeCell ref="BU22:BX22"/>
+    <mergeCell ref="BU23:BX23"/>
+    <mergeCell ref="BU24:BX24"/>
+    <mergeCell ref="BU25:BX25"/>
+    <mergeCell ref="BU26:BX26"/>
+    <mergeCell ref="BU27:BX27"/>
+    <mergeCell ref="BU28:BX28"/>
+    <mergeCell ref="BY21:CB21"/>
+    <mergeCell ref="BY22:CB22"/>
+    <mergeCell ref="BY23:CB23"/>
+    <mergeCell ref="BY24:CB24"/>
+    <mergeCell ref="BY25:CB25"/>
+    <mergeCell ref="BY26:CB26"/>
+    <mergeCell ref="BY27:CB27"/>
+    <mergeCell ref="BY28:CB28"/>
+    <mergeCell ref="BM21:BP21"/>
+    <mergeCell ref="BM22:BP22"/>
+    <mergeCell ref="BM23:BP23"/>
+    <mergeCell ref="BM24:BP24"/>
+    <mergeCell ref="BM25:BP25"/>
+    <mergeCell ref="BM26:BP26"/>
+    <mergeCell ref="BM27:BP27"/>
+    <mergeCell ref="BM28:BP28"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="BQ23:BT23"/>
+    <mergeCell ref="BQ24:BT24"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="BQ27:BT27"/>
+    <mergeCell ref="BQ28:BT28"/>
+    <mergeCell ref="BI28:BL28"/>
+    <mergeCell ref="AW21:AZ21"/>
+    <mergeCell ref="AW22:AZ22"/>
+    <mergeCell ref="AW23:AZ23"/>
+    <mergeCell ref="AW24:AZ24"/>
+    <mergeCell ref="AW25:AZ25"/>
+    <mergeCell ref="AW26:AZ26"/>
+    <mergeCell ref="AW27:AZ27"/>
+    <mergeCell ref="AW28:AZ28"/>
+    <mergeCell ref="BA21:BD21"/>
+    <mergeCell ref="BA22:BD22"/>
+    <mergeCell ref="BA23:BD23"/>
+    <mergeCell ref="BA24:BD24"/>
+    <mergeCell ref="BA25:BD25"/>
+    <mergeCell ref="BA26:BD26"/>
+    <mergeCell ref="BA27:BD27"/>
+    <mergeCell ref="BA28:BD28"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AG21:AJ21"/>
+    <mergeCell ref="AG22:AJ22"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="AG25:AJ25"/>
+    <mergeCell ref="AG26:AJ26"/>
+    <mergeCell ref="AG27:AJ27"/>
+    <mergeCell ref="AG28:AJ28"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="BI12:BL12"/>
+    <mergeCell ref="BI13:BL13"/>
+    <mergeCell ref="BI14:BL14"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BM8:BP8"/>
+    <mergeCell ref="BM9:BP9"/>
+    <mergeCell ref="BM10:BP10"/>
+    <mergeCell ref="BM11:BP11"/>
+    <mergeCell ref="BM12:BP12"/>
+    <mergeCell ref="BM13:BP13"/>
+    <mergeCell ref="BM14:BP14"/>
+    <mergeCell ref="BI7:BL7"/>
+    <mergeCell ref="BI8:BL8"/>
+    <mergeCell ref="BI9:BL9"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="BI11:BL11"/>
+    <mergeCell ref="BA12:BD12"/>
+    <mergeCell ref="BA13:BD13"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="BE7:BH7"/>
+    <mergeCell ref="BE8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BE11:BH11"/>
+    <mergeCell ref="BE12:BH12"/>
+    <mergeCell ref="BE13:BH13"/>
+    <mergeCell ref="BE14:BH14"/>
+    <mergeCell ref="BA7:BD7"/>
+    <mergeCell ref="BA8:BD8"/>
+    <mergeCell ref="BA9:BD9"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BA11:BD11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="AS7:AV7"/>
+    <mergeCell ref="AS8:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="BQ7:BT7"/>
     <mergeCell ref="BQ8:BT8"/>
     <mergeCell ref="BQ9:BT9"/>
@@ -6677,335 +7006,6 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="AS7:AV7"/>
-    <mergeCell ref="AS8:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="BA12:BD12"/>
-    <mergeCell ref="BA13:BD13"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="BE7:BH7"/>
-    <mergeCell ref="BE8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BE11:BH11"/>
-    <mergeCell ref="BE12:BH12"/>
-    <mergeCell ref="BE13:BH13"/>
-    <mergeCell ref="BE14:BH14"/>
-    <mergeCell ref="BA7:BD7"/>
-    <mergeCell ref="BA8:BD8"/>
-    <mergeCell ref="BA9:BD9"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BA11:BD11"/>
-    <mergeCell ref="BI12:BL12"/>
-    <mergeCell ref="BI13:BL13"/>
-    <mergeCell ref="BI14:BL14"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BM8:BP8"/>
-    <mergeCell ref="BM9:BP9"/>
-    <mergeCell ref="BM10:BP10"/>
-    <mergeCell ref="BM11:BP11"/>
-    <mergeCell ref="BM12:BP12"/>
-    <mergeCell ref="BM13:BP13"/>
-    <mergeCell ref="BM14:BP14"/>
-    <mergeCell ref="BI7:BL7"/>
-    <mergeCell ref="BI8:BL8"/>
-    <mergeCell ref="BI9:BL9"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="BI11:BL11"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AG21:AJ21"/>
-    <mergeCell ref="AG22:AJ22"/>
-    <mergeCell ref="AG23:AJ23"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="AG25:AJ25"/>
-    <mergeCell ref="AG26:AJ26"/>
-    <mergeCell ref="AG27:AJ27"/>
-    <mergeCell ref="AG28:AJ28"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="BI28:BL28"/>
-    <mergeCell ref="AW21:AZ21"/>
-    <mergeCell ref="AW22:AZ22"/>
-    <mergeCell ref="AW23:AZ23"/>
-    <mergeCell ref="AW24:AZ24"/>
-    <mergeCell ref="AW25:AZ25"/>
-    <mergeCell ref="AW26:AZ26"/>
-    <mergeCell ref="AW27:AZ27"/>
-    <mergeCell ref="AW28:AZ28"/>
-    <mergeCell ref="BA21:BD21"/>
-    <mergeCell ref="BA22:BD22"/>
-    <mergeCell ref="BA23:BD23"/>
-    <mergeCell ref="BA24:BD24"/>
-    <mergeCell ref="BA25:BD25"/>
-    <mergeCell ref="BA26:BD26"/>
-    <mergeCell ref="BA27:BD27"/>
-    <mergeCell ref="BA28:BD28"/>
-    <mergeCell ref="BY25:CB25"/>
-    <mergeCell ref="BY26:CB26"/>
-    <mergeCell ref="BY27:CB27"/>
-    <mergeCell ref="BY28:CB28"/>
-    <mergeCell ref="BM21:BP21"/>
-    <mergeCell ref="BM22:BP22"/>
-    <mergeCell ref="BM23:BP23"/>
-    <mergeCell ref="BM24:BP24"/>
-    <mergeCell ref="BM25:BP25"/>
-    <mergeCell ref="BM26:BP26"/>
-    <mergeCell ref="BM27:BP27"/>
-    <mergeCell ref="BM28:BP28"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="BQ23:BT23"/>
-    <mergeCell ref="BQ24:BT24"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="BQ27:BT27"/>
-    <mergeCell ref="BQ28:BT28"/>
-    <mergeCell ref="CC21:CF21"/>
-    <mergeCell ref="CC22:CF22"/>
-    <mergeCell ref="CC23:CF23"/>
-    <mergeCell ref="CC24:CF24"/>
-    <mergeCell ref="CC25:CF25"/>
-    <mergeCell ref="CC26:CF26"/>
-    <mergeCell ref="CC27:CF27"/>
-    <mergeCell ref="CC28:CF28"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="BU21:BX21"/>
-    <mergeCell ref="BU22:BX22"/>
-    <mergeCell ref="BU23:BX23"/>
-    <mergeCell ref="BU24:BX24"/>
-    <mergeCell ref="BU25:BX25"/>
-    <mergeCell ref="BU26:BX26"/>
-    <mergeCell ref="BU27:BX27"/>
-    <mergeCell ref="BU28:BX28"/>
-    <mergeCell ref="BY21:CB21"/>
-    <mergeCell ref="BY22:CB22"/>
-    <mergeCell ref="BY23:CB23"/>
-    <mergeCell ref="BY24:CB24"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="AK42:AN42"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AO42:AR42"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AS40:AV40"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="BU7:BX7"/>
-    <mergeCell ref="BU8:BX8"/>
-    <mergeCell ref="BU9:BX9"/>
-    <mergeCell ref="BU10:BX10"/>
-    <mergeCell ref="BU11:BX11"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="BU13:BX13"/>
-    <mergeCell ref="BU14:BX14"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="BE21:BH21"/>
-    <mergeCell ref="BE22:BH22"/>
-    <mergeCell ref="BE23:BH23"/>
-    <mergeCell ref="BE24:BH24"/>
-    <mergeCell ref="BE25:BH25"/>
-    <mergeCell ref="BE26:BH26"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="BE28:BH28"/>
-    <mergeCell ref="BI21:BL21"/>
-    <mergeCell ref="BI22:BL22"/>
-    <mergeCell ref="BI23:BL23"/>
-    <mergeCell ref="BI24:BL24"/>
-    <mergeCell ref="BI25:BL25"/>
-    <mergeCell ref="BI26:BL26"/>
-    <mergeCell ref="BI27:BL27"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 BN4 BJ4 BF4 BB4 AX4 AT4 AP4 AL4 AH4 AD4 Z4 R4 J4 CD18 BR4 B4 B18 J18 R18 Z18 AD18 AH18 AL18 AP18 AT18 AX18 BB18 BF18 BJ18 BN18 BR18 BV18 BZ18 B32 J32 R32 Z32 AD32 AH32 AL32 AP32 AT32 BV4">
